--- a/benchmark/results/hierarchical_metrics/sp_rdp_its.95.xlsx
+++ b/benchmark/results/hierarchical_metrics/sp_rdp_its.95.xlsx
@@ -570,7 +570,7 @@
         <v>0.8697064334790756</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8250705815923207</v>
+        <v>0.8255223037831734</v>
       </c>
       <c r="D2" t="n">
         <v>0.8567055221947486</v>
@@ -585,7 +585,7 @@
         <v>0.8295878035008469</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8294583712170411</v>
+        <v>0.9466164436939862</v>
       </c>
       <c r="I2" t="n">
         <v>0.9466164436939862</v>
@@ -649,7 +649,7 @@
         <v>0.786222473178995</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8250705815923207</v>
+        <v>0.8255223037831734</v>
       </c>
       <c r="D3" t="n">
         <v>0.821682665160926</v>
@@ -664,7 +664,7 @@
         <v>0.8295878035008469</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7211744776962168</v>
+        <v>0.8230378317334839</v>
       </c>
       <c r="I3" t="n">
         <v>0.8230378317334839</v>
@@ -728,7 +728,7 @@
         <v>0.8258600237247924</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8250705815923207</v>
+        <v>0.8255223037831734</v>
       </c>
       <c r="D4" t="n">
         <v>0.8388286834217201</v>
@@ -743,7 +743,7 @@
         <v>0.8295878035008469</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7715355805243446</v>
+        <v>0.8805122628971849</v>
       </c>
       <c r="I4" t="n">
         <v>0.8805122628971849</v>

--- a/benchmark/results/hierarchical_metrics/sp_rdp_its.95.xlsx
+++ b/benchmark/results/hierarchical_metrics/sp_rdp_its.95.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,366 +434,480 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>metric</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>blca</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C2" t="n">
+        <v>0.8697064334790756</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.786222473178995</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8258600237247924</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>btop</t>
         </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ct1</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ct2</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>hitac_qiime</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>hitac_standalone</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>hitac_filter_qiime</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>hitac_filter_standalone</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>knn</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>ktop</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>metaxa2</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>microclass</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>nbc50</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>nbc80</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>q1</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>q2blast</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>q2sk</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>q2vs</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>rdp50</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>rdp80</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>sintax50</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>sintax80</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>spingo</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>top</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>precision</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.8697064334790756</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.8255223037831734</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.8567055221947486</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.9693766937669376</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.8295878035008469</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.8295878035008469</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.9466164436939862</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.9466164436939862</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.9925228054433975</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.8249576510446076</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.9839875301119456</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.8258610954263128</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.8683176568639124</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.9220265441551811</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.8603497164461248</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.9628038136162212</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.8815837268434435</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.964516129032258</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.8675142585551331</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.920942075111394</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.9068926835348372</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.9538297304510276</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.7609823590453131</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.8264257481648786</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>recall</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.786222473178995</v>
       </c>
       <c r="C3" t="n">
         <v>0.8255223037831734</v>
       </c>
       <c r="D3" t="n">
+        <v>0.8255223037831734</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8255223037831734</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ct1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8567055221947486</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.821682665160926</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E4" t="n">
+        <v>0.8388286834217201</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ct2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9693766937669376</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.8079051383399209</v>
       </c>
-      <c r="F3" t="n">
+      <c r="E5" t="n">
+        <v>0.8813058207576224</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>hitac_qiime</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>0.8295878035008469</v>
       </c>
-      <c r="G3" t="n">
+      <c r="D6" t="n">
         <v>0.8295878035008469</v>
       </c>
-      <c r="H3" t="n">
+      <c r="E6" t="n">
+        <v>0.8295878035008469</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>hitac_standalone</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8295878035008469</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8295878035008469</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8295878035008469</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>hitac_filter_qiime</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9466164436939862</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.8230378317334839</v>
       </c>
-      <c r="I3" t="n">
+      <c r="E8" t="n">
+        <v>0.8805122628971849</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>hitac_filter_standalone</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9466164436939862</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.8230378317334839</v>
       </c>
-      <c r="J3" t="n">
+      <c r="E9" t="n">
+        <v>0.8805122628971849</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>knn</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9925228054433975</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.749520045172219</v>
       </c>
-      <c r="K3" t="n">
+      <c r="E10" t="n">
+        <v>0.8540728348989834</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ktop</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>0.8249576510446076</v>
       </c>
-      <c r="L3" t="n">
+      <c r="D11" t="n">
+        <v>0.8249576510446076</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8249576510446076</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>metaxa2</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9839875301119456</v>
+      </c>
+      <c r="D12" t="n">
         <v>0.7841897233201581</v>
       </c>
-      <c r="M3" t="n">
+      <c r="E12" t="n">
+        <v>0.8728004022121669</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>microclass</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>0.8258610954263128</v>
       </c>
-      <c r="N3" t="n">
+      <c r="D13" t="n">
+        <v>0.8258610954263128</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8258610954263128</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>nbc50</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8683176568639124</v>
+      </c>
+      <c r="D14" t="n">
         <v>0.8236024844720496</v>
       </c>
-      <c r="O3" t="n">
+      <c r="E14" t="n">
+        <v>0.8453691897531007</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>nbc80</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9220265441551811</v>
+      </c>
+      <c r="D15" t="n">
         <v>0.8159232072275551</v>
       </c>
-      <c r="P3" t="n">
+      <c r="E15" t="n">
+        <v>0.8657360254029117</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>q1</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8603497164461248</v>
+      </c>
+      <c r="D16" t="n">
         <v>0.822360248447205</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="E16" t="n">
+        <v>0.8409261504705815</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>q2blast</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9628038136162212</v>
+      </c>
+      <c r="D17" t="n">
         <v>0.8097120271033315</v>
       </c>
-      <c r="R3" t="n">
+      <c r="E17" t="n">
+        <v>0.8796466691203533</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>q2sk</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8815837268434435</v>
+      </c>
+      <c r="D18" t="n">
         <v>0.8222473178994918</v>
       </c>
-      <c r="S3" t="n">
+      <c r="E18" t="n">
+        <v>0.8508823185695923</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>q2vs</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.964516129032258</v>
+      </c>
+      <c r="D19" t="n">
         <v>0.8103896103896104</v>
       </c>
-      <c r="T3" t="n">
+      <c r="E19" t="n">
+        <v>0.8807609696225835</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>rdp50</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8675142585551331</v>
+      </c>
+      <c r="D20" t="n">
         <v>0.824505928853755</v>
       </c>
-      <c r="U3" t="n">
+      <c r="E20" t="n">
+        <v>0.8454634937177928</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>rdp80</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.920942075111394</v>
+      </c>
+      <c r="D21" t="n">
         <v>0.8169395821569735</v>
       </c>
-      <c r="V3" t="n">
+      <c r="E21" t="n">
+        <v>0.8658288450029922</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>sintax50</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9068926835348372</v>
+      </c>
+      <c r="D22" t="n">
         <v>0.821682665160926</v>
       </c>
-      <c r="W3" t="n">
+      <c r="E22" t="n">
+        <v>0.8621874629695462</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>sintax80</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9538297304510276</v>
+      </c>
+      <c r="D23" t="n">
         <v>0.807227555053642</v>
       </c>
-      <c r="X3" t="n">
+      <c r="E23" t="n">
+        <v>0.8744265704324424</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>spingo</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7609823590453131</v>
+      </c>
+      <c r="D24" t="n">
         <v>0.2484472049689441</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="E24" t="n">
+        <v>0.3745956070151541</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
         <v>0.8264257481648786</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>f1</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.8258600237247924</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8255223037831734</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.8388286834217201</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.8813058207576224</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.8295878035008469</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.8295878035008469</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.8805122628971849</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.8805122628971849</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.8540728348989834</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.8249576510446076</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.8728004022121669</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.8258610954263128</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.8453691897531007</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.8657360254029117</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.8409261504705815</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.8796466691203533</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.8508823185695923</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.8807609696225835</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.8454634937177928</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.8658288450029922</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.8621874629695462</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.8744265704324424</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.3745956070151541</v>
-      </c>
-      <c r="Y4" t="n">
+      <c r="D25" t="n">
+        <v>0.8264257481648786</v>
+      </c>
+      <c r="E25" t="n">
         <v>0.8264257481648786</v>
       </c>
     </row>
